--- a/Design/hero.xlsx
+++ b/Design/hero.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -633,6 +633,28 @@
   <si>
     <t>英雄基本属性7
 溅射范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">英雄复活时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡后复活需要时间
+单位为毫秒</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReviveTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +705,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -704,7 +733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -989,11 +1018,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="double">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1123,6 +1189,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1427,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1439,25 +1521,26 @@
     <col min="2" max="2" width="11.875" style="33" customWidth="1"/>
     <col min="3" max="4" width="13.25" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.625" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="13.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.75" style="33" customWidth="1"/>
-    <col min="26" max="26" width="13.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.75" style="33" customWidth="1"/>
-    <col min="29" max="30" width="13.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="39.375" style="33" customWidth="1"/>
-    <col min="32" max="35" width="11.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="33"/>
+    <col min="6" max="6" width="17.5" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="13.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.75" style="33" customWidth="1"/>
+    <col min="27" max="27" width="13.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.75" style="33" customWidth="1"/>
+    <col min="30" max="31" width="13.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="39.375" style="33" customWidth="1"/>
+    <col min="33" max="36" width="11.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1473,90 +1556,93 @@
       <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="58"/>
       <c r="AG1" s="58"/>
       <c r="AH1" s="58"/>
       <c r="AI1" s="58"/>
-    </row>
-    <row r="2" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="58"/>
+    </row>
+    <row r="2" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1572,86 +1658,89 @@
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1667,11 +1756,11 @@
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>1</v>
@@ -1691,11 +1780,11 @@
       <c r="M3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>0</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>1</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>1</v>
@@ -1722,31 +1811,34 @@
         <v>1</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="Z3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>10101</v>
       </c>
@@ -1756,18 +1848,19 @@
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="48"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N4" s="15"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>10102</v>
       </c>
@@ -1777,18 +1870,19 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="48"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N5" s="15"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>10103</v>
       </c>
@@ -1798,18 +1892,19 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="48"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N6" s="15"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>10104</v>
       </c>
@@ -1819,18 +1914,19 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="15"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>10105</v>
       </c>
@@ -1840,577 +1936,611 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="48"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="15"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="48"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N9" s="15"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="48"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N10" s="15"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="48"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N11" s="15"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="48"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N12" s="15"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N13" s="15"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="48"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="16"/>
-    </row>
-    <row r="15" spans="1:35" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N14" s="15"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="49"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="1:35" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N15" s="21"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="22"/>
+    </row>
+    <row r="16" spans="1:36" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N16" s="27"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="48"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N17" s="15"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="16"/>
-    </row>
-    <row r="19" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N18" s="15"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="16"/>
-    </row>
-    <row r="20" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N19" s="15"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="48"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N20" s="15"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="48"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N21" s="15"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="48"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N22" s="15"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="48"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N23" s="15"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N24" s="15"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="48"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N25" s="15"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="51"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N26" s="31"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="34"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="52"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="37"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="38"/>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="39"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
       <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="42"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N28" s="39"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="42"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="43"/>
       <c r="K29" s="43"/>
       <c r="L29" s="43"/>
       <c r="M29" s="43"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="45"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N29" s="43"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="45"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="43"/>
       <c r="K30" s="43"/>
       <c r="L30" s="43"/>
       <c r="M30" s="43"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="45"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N30" s="43"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="45"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
       <c r="J31" s="43"/>
       <c r="K31" s="43"/>
       <c r="L31" s="43"/>
       <c r="M31" s="43"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="45"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N31" s="43"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="45"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
       <c r="J32" s="43"/>
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
       <c r="M32" s="43"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="45"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N32" s="43"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="45"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="43"/>
       <c r="M33" s="43"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="45"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N33" s="43"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="45"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="44"/>
       <c r="H34" s="43"/>
       <c r="I34" s="43"/>
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="43"/>
       <c r="M34" s="43"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="45"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N34" s="43"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="45"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="44"/>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
       <c r="L35" s="43"/>
       <c r="M35" s="43"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="45"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N35" s="43"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="45"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
       <c r="L36" s="43"/>
       <c r="M36" s="43"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="45"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N36" s="43"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="45"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="44"/>
       <c r="H37" s="43"/>
       <c r="I37" s="43"/>
       <c r="J37" s="43"/>
       <c r="K37" s="43"/>
       <c r="L37" s="43"/>
       <c r="M37" s="43"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="45"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N37" s="43"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="45"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="44"/>
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
       <c r="J38" s="43"/>
       <c r="K38" s="43"/>
       <c r="L38" s="43"/>
       <c r="M38" s="43"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="45"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N38" s="43"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="45"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="43"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="44"/>
       <c r="H39" s="43"/>
       <c r="I39" s="43"/>
       <c r="J39" s="43"/>
       <c r="K39" s="43"/>
       <c r="L39" s="43"/>
       <c r="M39" s="43"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="45"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N39" s="43"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="45"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="43"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="44"/>
       <c r="H40" s="43"/>
       <c r="I40" s="43"/>
       <c r="J40" s="43"/>
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="45"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N40" s="43"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="45"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
       <c r="J41" s="43"/>
       <c r="K41" s="43"/>
       <c r="L41" s="43"/>
       <c r="M41" s="43"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="45"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
